--- a/data/hotels_by_city/Dallas/Dallas_shard_221.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_221.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="286">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>937jasons</t>
+  </si>
+  <si>
     <t>05/29/2018</t>
   </si>
   <si>
@@ -186,6 +189,9 @@
     <t>Where to start. Room was dirty when I checked in. Trash and dirt on the floor. Months worth of buildup under the sleeper sofa. Sleeper sofa mattress was disgusting and had smashed food on it. Old vegetables were left in the fridge. Did not appear anything had been wiped down. Fridge is so loud you’re listening to it all day. Was told “grab and go” breakfast was daily. For the first 3 days that only meant coffee because they had not restocked anything apparently. Laundry room has 5 washers and 6 dryers. 2 washers work and 3 dryers. I’ve been here two weeks and no change. Hallways don’t seem to ever get vacuumed. Trash all over outside and has been there since I checked in. They only clean your room once a week. I emptied all my trash and pulled all my linens myself. Again nothing wiped down and they tracked more dirt in the room than when they arrived. I know because i vacuumed it myself that morning with my own vacuum before going to work. All they did was make the bed, pour cleaner in the toilet and restock towels. Really the only positive thing I can say is that the ladies at the front desk have been nice. Seems like every time I hobby there though another guest is there complaining. There are several other hotels in this area, I would suggest looking elsewhere. More</t>
   </si>
   <si>
+    <t>Anuj S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109045-r554786980-Extended_Stay_America_Dallas_Las_Colinas_Meadow_Creek_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -216,6 +222,9 @@
     <t>Great service at great price.. Great staff. Especially Deborah.Rooms are great for the price.. Location is easily accessible,Basic amenities are provided and staff goes one step ahead to help you out. More</t>
   </si>
   <si>
+    <t>E2018MOerics</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109045-r569219534-Extended_Stay_America_Dallas_Las_Colinas_Meadow_Creek_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -243,6 +252,9 @@
     <t>I was charged twice for a hotel that said was not able to complete reservation, finally charge went through at a different location but yet I was still charged twice for the other room and have yet to be contacted about refunds and its been almost 2 weeks without even an acknowledgement. The last reservation I had the TV was not working in the hotel for over 3 days... Keep in mind that I have spent over 30k with this hotel chain since 2014 so I can deal with issues now and again but this is getting to be too much to eat.More</t>
   </si>
   <si>
+    <t>Lawn W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109045-r566258457-Extended_Stay_America_Dallas_Las_Colinas_Meadow_Creek_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -267,6 +279,9 @@
     <t>I was here four about 2.5 months and I never had a problem with anything. The people was nice and helpful. my room was cleaned once a week as scheduled. this a great chose of a extended stay hotel if work as you traveling for a long period time.More</t>
   </si>
   <si>
+    <t>darruss2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109045-r549607641-Extended_Stay_America_Dallas_Las_Colinas_Meadow_Creek_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -297,6 +312,9 @@
     <t>Great place I was happy service was great, staff was friendly and provided great customer service.clean rooms very spacious and nice laundry services with vending machines, great location with a quiet home feelingMore</t>
   </si>
   <si>
+    <t>seonghok751</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109045-r538491816-Extended_Stay_America_Dallas_Las_Colinas_Meadow_Creek_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -324,6 +342,9 @@
     <t>This hotel is expensive. I will mot recommend this. If you want to stay in dallas you search other place. I will not go again. And breakfast is so bad. This hotel CEO have to eat your breakfast. Then they know what is wrong. More</t>
   </si>
   <si>
+    <t>Ted M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109045-r524223081-Extended_Stay_America_Dallas_Las_Colinas_Meadow_Creek_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -351,6 +372,9 @@
     <t>Comming here since 2010 finnaly a good manager- Bo- staff Tiara best customer service ever -the best  Watched her  walk outside because a customer had to have his key rebooted she took the key re set it walk back out  gave to the customer(curbside service nice)More</t>
   </si>
   <si>
+    <t>vincentsQ1564EW</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109045-r504868466-Extended_Stay_America_Dallas_Las_Colinas_Meadow_Creek_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -375,6 +399,9 @@
     <t>Great location for training and travel. Close to food and minor needs. Staff is very friendly and helpful to help with anything you need. Small gym room for cardio but very convenient. Laundry room needs more and cheaper machines.More</t>
   </si>
   <si>
+    <t>Laura H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109045-r492285142-Extended_Stay_America_Dallas_Las_Colinas_Meadow_Creek_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -399,6 +426,9 @@
     <t>This is an extended stay hotel with a kitchen. However, there is nothing in the kitchen. Not a coffee pot, not a mug, not even a plastic or Styrofoam cup to drink out of!  There was half a bag of chips in the cabinet, toothpaste on the bathroom floor, mold on the shower curtain.  Not to mention we arrived at 2 am and could not get in our room because the door handle didn't work properly. When we finally got in, it was freezing in there. The a/c was set at 63! I had requested a queen room which in most hotels means 2 queen beds. This one had full size bed and sleeper sofa.  They do provide breakfast and coffee in the lobby. It consisted of small granola bars, small muffins or oatmeal, and some pretty nasty coffee.  I quess we should have known better as we stayed in an Extend Stay America in South Dakota and it was pretty bad too. At least that one had one coffee mug, and a fork. LOL. But at least this one didn't have curly black hair all over the bathmat and in the tub. ICK.More</t>
   </si>
   <si>
+    <t>bcakes82</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109045-r485924363-Extended_Stay_America_Dallas_Las_Colinas_Meadow_Creek_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -426,6 +456,9 @@
     <t>Chenay provided great service, but its hard to see anyone at the front desk regularly. There were gunshots heard during my stay. There were a couple of staff members that were nice but in a way that it didn't seem genuine moreso just going through the motions. But housekeeping was always around and working hard and being diligent. I appreciate the housekeeping ladies greatly. It appears that its time to clean the pool.More</t>
   </si>
   <si>
+    <t>chantaldye</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109045-r479231073-Extended_Stay_America_Dallas_Las_Colinas_Meadow_Creek_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -453,6 +486,9 @@
     <t>Great staff loved deborah, destiny, tiffany, angel, chaney they made me feel like I was staying with family. They were always helpful and very attentive to me and my families needs. would visit again.More</t>
   </si>
   <si>
+    <t>Lana B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109045-r475524229-Extended_Stay_America_Dallas_Las_Colinas_Meadow_Creek_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -480,6 +516,9 @@
     <t>I would highly recommend staying at this location.  It is close to everything I needed without having to get into major traffic. All of the staff is kind, accommodating, friendly &amp; professional (especially Deborah &amp; Chanay). These two ladies are the absolute BEST! Deborah makes a point to ask about my father who is sick on a repeated basis! That's an entirely new level of care &amp; concern for a patron and it's so nice to know someone cares! Chanay has the greatest personality &amp; does everything possible to help you.  This hotel is clean &amp; they just updated the fitness equipment with a new treadmill, elliptical &amp; stationery bike! We have been at this hotel for numerous months &amp; don't plan on leaving until the contract ends with our job.More</t>
   </si>
   <si>
+    <t>Mary H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109045-r475321967-Extended_Stay_America_Dallas_Las_Colinas_Meadow_Creek_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -498,6 +537,9 @@
     <t>Love this place the staff is great Debra the front desk lady is the best. This hotel makes sure the guest are happy and rooms kept clean at all time! Best hotel stay I've ever had! Free WiFi and cable is great they give out cook ware if you need it.More</t>
   </si>
   <si>
+    <t>murtuzamirza</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109045-r456749203-Extended_Stay_America_Dallas_Las_Colinas_Meadow_Creek_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -519,6 +561,9 @@
     <t>Booked the hotel for 92 days, stayed in Deluxe Queen. # 255  &amp; #3241. As you enter: the curtain on your left is torn and tattered, with white stains, may be paint2. Iron Board was missing3. Chair on the right had holes in it. 4. Bulb in the lamp was fused5. Room was so badly lit. 6. pillows has hard white stains on , don't know what was that, don't even wanna know.7. bed skirt was torn tattered and had white stains on it.8. Drip pans in stove was so dirty that it was stinking9. fridge was broken from inside at the bottom left and right.10. carpet under the table was dull of foot marks11. And then we open the cupboard in the bathroom it was full of hair as someone had a hair cut12. And then that someone left his used shirt with hair next to his hair.13. Dishes and utensils were so stained and old that even one would be ashamed to donate them to goodwill. This was our third change of room since we checked in, and this was better just had above 12 points. We gave up stayed for 1 night and checked out.More</t>
   </si>
   <si>
+    <t>Jennifer B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109045-r455981084-Extended_Stay_America_Dallas_Las_Colinas_Meadow_Creek_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -534,6 +579,9 @@
     <t>I booked my room through Hotwire and therefore I was told by the lady in check in that I had to pay a $100 deposit which I would get back at check out.  In no way was I made aware of this ahead of time  and I was grateful I had the cash on me.  The girl at the  check in did not seem very friendly and that may have been cause I interrupted her eating.  The bed felt like I was sleeping on cement.  Guess I've learned my lesson to not use "deal" sights because their is no deal to them.</t>
   </si>
   <si>
+    <t>Twiana E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109045-r451804211-Extended_Stay_America_Dallas_Las_Colinas_Meadow_Creek_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -558,6 +606,9 @@
     <t>I have used this hotel a few times and it has always been clean and the staff are so helpful. Khadija called right away to ensure the room was to my liking and she offered me all the comforts of home. I will rebook the location again.More</t>
   </si>
   <si>
+    <t>SLG99</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109045-r449701612-Extended_Stay_America_Dallas_Las_Colinas_Meadow_Creek_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -585,6 +636,9 @@
     <t>Several work related projects have extended my stay at this property for several months.I have been comfortable the entire stay.  Clean, Quite, Centrally Located.  Kitchen is convenient with a full size refrigerator.  Staff is friendly and helpful.  I have stayed at several other Extended Stays in the area, but this is the best in the DFW Metroplex.More</t>
   </si>
   <si>
+    <t>ibmastermind</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109045-r444112127-Extended_Stay_America_Dallas_Las_Colinas_Meadow_Creek_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -609,6 +663,9 @@
     <t>My stay has been so smooth with the help of all the staff at Meadow Creek. They have in one way or another made my stay more pleasant. They have always made me feel comfortable and all my needs met. The maintenance I didn't get to know well because I never had a reason for them to be summoned so with that being said, I had a wonderful time.More</t>
   </si>
   <si>
+    <t>NashvillemeetsAustin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109045-r416930482-Extended_Stay_America_Dallas_Las_Colinas_Meadow_Creek_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -627,6 +684,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>Jimthelip</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109045-r395176456-Extended_Stay_America_Dallas_Las_Colinas_Meadow_Creek_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -648,6 +708,9 @@
     <t>Stayed at this location for several weekends on business, always in different rooms.  By and large the rooms were consistently clean enough, although occasionally the closets lacked hangers. Sleep quality was good.  The effectiveness of the AC units varied but none of my rooms was uncomfortable. The TV system could use an upgrade. Picture was quality fair at best and the overall channel options a bit limited by modern standards (more sports channels, please). Not really comfortable with the appearance of a political bias from the company in their selection of "news" channels.  I'll leave it at that. My main concern, especially on weekends, is peace and quiet while inside the building and this location, along with its seemingly newer companion next door, passed that test well.More</t>
   </si>
   <si>
+    <t>stbeck75</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109045-r355446285-Extended_Stay_America_Dallas_Las_Colinas_Meadow_Creek_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -675,6 +738,9 @@
     <t>I checked in for a week long stay, though after the first night I checked out and the hotel was unresponsive to my needs. I ended up calling Priceline to get assistance even after that the hotel was like can we switch you rooms. I am sorry but if the room you gave me wasn't clean what is going to make me believe the next room will be cleaner.Hallways smell dimly lit and very poorly managed.More</t>
   </si>
   <si>
+    <t>Bill Q</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109045-r327734641-Extended_Stay_America_Dallas_Las_Colinas_Meadow_Creek_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -702,6 +768,9 @@
     <t>The entire hotel smells like a combination of maple syrup and cigarettes. There is carpet pulled up and lying in the hallway. 2 lights in my room don't work. Trashy people hanging out at doorways smoking. The room appears to be fairly clean, raising the rating from 1 star to 2 stars. More</t>
   </si>
   <si>
+    <t>Jonesnco</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109045-r318467646-Extended_Stay_America_Dallas_Las_Colinas_Meadow_Creek_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -729,6 +798,9 @@
     <t>I stayed at this location in October 2015 through reservations I made on a discount hotel site. At first glance the room seemed fairly decent however there were a few problems. First the sink drained very slowly.  The shower did not suffer the same issue. After washing my face in the sink it took approximately 3 minutes for the sink to be fully drained. Second, and this is a minor issue, the shower insert and countertop used in the bathroom was an off-white with large speckles of brown. This at first glance makes all the surfaces appear to be very dirty. More of a 'poor choice' issue than a professional service issue.  The air conditioner in my room was moderately noisy - enough that I turned it off in order to be able to sleep reasonably well. I found the TV to be somewhat under sized for the distance away from the bed which makes viewing difficult however from the couch viewing is fine. The room I stayed in came with a refrigerator and microwave neither of which I used.  The refrigerator is more than a mini fridge and has a freezer compartment. The pool at the location appeared to be open however it is very small and I didn't use it nor did I use the exercise room that was available although I did see one or two people using the equipment. Parking seems adequate and reasonably well lit....I stayed at this location in October 2015 through reservations I made on a discount hotel site. At first glance the room seemed fairly decent however there were a few problems. First the sink drained very slowly.  The shower did not suffer the same issue. After washing my face in the sink it took approximately 3 minutes for the sink to be fully drained. Second, and this is a minor issue, the shower insert and countertop used in the bathroom was an off-white with large speckles of brown. This at first glance makes all the surfaces appear to be very dirty. More of a 'poor choice' issue than a professional service issue.  The air conditioner in my room was moderately noisy - enough that I turned it off in order to be able to sleep reasonably well. I found the TV to be somewhat under sized for the distance away from the bed which makes viewing difficult however from the couch viewing is fine. The room I stayed in came with a refrigerator and microwave neither of which I used.  The refrigerator is more than a mini fridge and has a freezer compartment. The pool at the location appeared to be open however it is very small and I didn't use it nor did I use the exercise room that was available although I did see one or two people using the equipment. Parking seems adequate and reasonably well lit. There didn't seem to be a great deal of noise from outside the hotel (traffic, etc).However in regards to the service issues, as other reviewers have stated there is no real breakfast served at this location. Upon my departure I visited the front desk and asked about breakfast. The woman working the counter was rather flippant when I asked about it and upon visiting the dining room the only thing available were a few pieces of fruit and coffee. I understand the location may not have waffle makers, hot links etc but I would have expected at least standard cold cereal and milk to be available. I can't complain a great deal given I stayed at the location for around half the normal price but had I paid full retail I would have been very unhappy.More</t>
   </si>
   <si>
+    <t>Elayna A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109045-r318016428-Extended_Stay_America_Dallas_Las_Colinas_Meadow_Creek_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -756,6 +828,9 @@
     <t>We did not know what hotel we were staying in until we paid. A few reviews had me worried. But the deal we got was great. We were here for the Cowboys vs Patriots game, so only 2 nights.Desiree at check in was so friendly and quick! When we got to our room we were so surprised at how big it was! We have never stayed at this chain before so we didn't know what to expect. Everything was clean and well organized for us. Our first night my husband accidently turned heat on instead of cool air, so the fire alarm sounded. I'm assuming due to not being on in some time. We called down to the desk in a frantic not knowing if there was a fire. The front desk attendant ran up. He was great! Even called moments later to let us know he has checked the other 2 floors. Our last night we needed to print out boarding passes and the desk attendant allowed us to use their computer so we didn't have to go to an office store and pay. Very kind!Check out was fast and the woman who was there was very friendly. Breakfast was simple, but enough to fill you up. We had chocolate muffins and hot cocoa.Our stay was great! Will definitely be back :) More</t>
   </si>
   <si>
+    <t>wayneknight1980</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109045-r314822335-Extended_Stay_America_Dallas_Las_Colinas_Meadow_Creek_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -775,6 +850,9 @@
   </si>
   <si>
     <t>First off if you visit this hotel make sure you go in the correct one. There are two extended stays right next to each other. So after waiting in line while a guy was filling out paperwork like he was buying a car, I was informed I was at the wrong hotel. At the correct hotel I found the bathroom at soap scum on the floor near the tub, there was a black thing on the floor..it looked like a black olive but I'm not sure. There was a used Q-tip on the floor near the sink. In the bed there was something causing the blanket to stick to the sheets. After removing the blanket it woke me up a couple times with my leg hair sticking to the sheet. It would be better if they did a better job of cleaning. As for breakfast I don't know what they had earlier, but at 8:20 all that was left was two granola bars and 5 packets of plain oatmeal. More</t>
+  </si>
+  <si>
+    <t>Bishop_atl</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109045-r314373613-Extended_Stay_America_Dallas_Las_Colinas_Meadow_Creek_Dr-Irving_Texas.html</t>
@@ -1300,43 +1378,47 @@
       <c r="A2" t="n">
         <v>35323</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>136065</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1348,56 +1430,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>35323</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>136066</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -1419,56 +1505,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>35323</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>136067</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -1490,56 +1580,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>35323</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>136068</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -1557,56 +1651,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="X5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Y5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>35323</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>136069</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="L6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="O6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -1628,56 +1726,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="X6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Y6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>35323</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>136070</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="O7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P7" t="n">
         <v>2</v>
@@ -1699,56 +1801,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="X7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="Y7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>35323</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>2493</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="K8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="L8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="O8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1760,56 +1866,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="X8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="Y8" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>35323</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>136071</v>
+      </c>
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="J9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="K9" t="s">
+        <v>122</v>
+      </c>
+      <c r="L9" t="s">
+        <v>123</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>114</v>
       </c>
-      <c r="L9" t="s">
-        <v>115</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>107</v>
-      </c>
       <c r="O9" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -1831,56 +1941,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="X9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="Y9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>35323</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>1237</v>
+      </c>
+      <c r="C10" t="s">
+        <v>127</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="J10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="K10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="L10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="O10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1898,56 +2012,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="X10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="Y10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>35323</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>136072</v>
+      </c>
+      <c r="C11" t="s">
+        <v>136</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="J11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="K11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="L11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="O11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1959,56 +2077,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="X11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="Y11" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>35323</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>136073</v>
+      </c>
+      <c r="C12" t="s">
+        <v>146</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="J12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="K12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="L12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="O12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
@@ -2024,56 +2146,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="X12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="Y12" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>35323</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>136074</v>
+      </c>
+      <c r="C13" t="s">
+        <v>156</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="J13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="K13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="L13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="O13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2085,56 +2211,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="X13" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="Y13" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>35323</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>5411</v>
+      </c>
+      <c r="C14" t="s">
+        <v>166</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="J14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="K14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="L14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="O14" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2146,56 +2276,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="X14" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="Y14" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>35323</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>136075</v>
+      </c>
+      <c r="C15" t="s">
+        <v>173</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="J15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="K15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="L15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="O15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2213,50 +2347,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>35323</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>2424</v>
+      </c>
+      <c r="C16" t="s">
+        <v>181</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="J16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="K16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="L16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="O16" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
@@ -2276,50 +2414,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>35323</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>136076</v>
+      </c>
+      <c r="C17" t="s">
+        <v>187</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="J17" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="K17" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="L17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="O17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2335,56 +2477,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="X17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="Y17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>35323</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>136077</v>
+      </c>
+      <c r="C18" t="s">
+        <v>196</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="J18" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="K18" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="L18" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="O18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -2402,56 +2548,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="X18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="Y18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>35323</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>136078</v>
+      </c>
+      <c r="C19" t="s">
+        <v>206</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="J19" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="K19" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="L19" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="O19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -2467,56 +2617,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="X19" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="Y19" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>35323</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>136079</v>
+      </c>
+      <c r="C20" t="s">
+        <v>215</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="J20" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="K20" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="L20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="O20" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P20" t="n">
         <v>2</v>
@@ -2536,50 +2690,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>35323</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>136080</v>
+      </c>
+      <c r="C21" t="s">
+        <v>222</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="J21" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="K21" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="L21" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="O21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -2593,50 +2751,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>35323</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>136081</v>
+      </c>
+      <c r="C22" t="s">
+        <v>230</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="J22" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="K22" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="L22" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="O22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P22" t="n">
         <v>1</v>
@@ -2654,56 +2816,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="X22" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="Y22" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>35323</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>136082</v>
+      </c>
+      <c r="C23" t="s">
+        <v>240</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="J23" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="K23" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="L23" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="M23" t="n">
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="O23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -2715,56 +2881,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="X23" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="Y23" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>35323</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>136083</v>
+      </c>
+      <c r="C24" t="s">
+        <v>250</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="J24" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="K24" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="L24" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="O24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -2776,56 +2946,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="X24" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="Y24" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>35323</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>136084</v>
+      </c>
+      <c r="C25" t="s">
+        <v>260</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="J25" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="K25" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="L25" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="O25" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -2837,56 +3011,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="X25" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="Y25" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>35323</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>1034</v>
+      </c>
+      <c r="C26" t="s">
+        <v>270</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="J26" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="K26" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="L26" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="M26" t="n">
         <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="O26" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -2900,50 +3078,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>35323</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>136085</v>
+      </c>
+      <c r="C27" t="s">
+        <v>278</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="J27" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="K27" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="L27" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="O27" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -2963,7 +3145,7 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_221.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_221.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="269">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,78 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>937jasons</t>
-  </si>
-  <si>
-    <t>05/29/2018</t>
+    <t>08/19/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109045-r600882238-Extended_Stay_America_Dallas_Las_Colinas_Meadow_Creek_Dr-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>56032</t>
+  </si>
+  <si>
+    <t>109045</t>
+  </si>
+  <si>
+    <t>600882238</t>
+  </si>
+  <si>
+    <t>07/29/2018</t>
+  </si>
+  <si>
+    <t>Receptionists with attitude, Management without a care!</t>
+  </si>
+  <si>
+    <t>I would highly recommend that anyone considering to stay here reconsider that after this review. I'm not one to complain about experiences, especially not publicly, but I feel the need to get the word out about this place. I arrived in TX from PA early May. I had a reservation at another location in Richardson. When I arrived there, they said they didn't have any rooms available (I HAD A RESERVATION?). It's obvious that they intentionally over-book. After calling every Extended Stay in the area, I wound up at this location (1 hour from my workplace) solely because it was the only one that had a room available (keep in mind I was 26 hours away from home). Upon arrival, the room was disgusting - broken cabinets, broken refrigerator compartments, hair in the shower, crumbs in kitchen drawers, stains on the floor, etc. The wi-fi was out FIVE times during my 2 month stay -- one was an area-wide outage (no problem, not their fault). The other ones were related to their network - you think they would comp you, but they didn't care and were completely hostile whenever someone asked when it would be back. My dog would go under the bed and come out with diapers, bottles, etc. (How long were they under there??? Gross!). The pool was "under construction", not open for guests -- yet no one was ever doing any work to fix the pool? The...I would highly recommend that anyone considering to stay here reconsider that after this review. I'm not one to complain about experiences, especially not publicly, but I feel the need to get the word out about this place. I arrived in TX from PA early May. I had a reservation at another location in Richardson. When I arrived there, they said they didn't have any rooms available (I HAD A RESERVATION?). It's obvious that they intentionally over-book. After calling every Extended Stay in the area, I wound up at this location (1 hour from my workplace) solely because it was the only one that had a room available (keep in mind I was 26 hours away from home). Upon arrival, the room was disgusting - broken cabinets, broken refrigerator compartments, hair in the shower, crumbs in kitchen drawers, stains on the floor, etc. The wi-fi was out FIVE times during my 2 month stay -- one was an area-wide outage (no problem, not their fault). The other ones were related to their network - you think they would comp you, but they didn't care and were completely hostile whenever someone asked when it would be back. My dog would go under the bed and come out with diapers, bottles, etc. (How long were they under there??? Gross!). The pool was "under construction", not open for guests -- yet no one was ever doing any work to fix the pool? The receptionists had major attitude and were completely miserable and unprofessional -- especially the one with the facial piercing and acrylic nails. One day I went down and said, "Could I please have a shower towel?" She made a face, rolled her eyes, and snootily replied, "You mean a drying towel." She proceeded to argue with me about the difference between a shower towel and a drying towel. By the way, google "shower towel", and you'll see an image of a large towel that you use to dry yourself after a shower, but that's besides the point. Customer service is non-existent. Also, a guest told me that someone entered the building at knocked on his door, holding him at gunpoint. The way the staff handled this was by putting signs on the door to close the door - meanwhile, the door in the back literally will not completely shut. But hey, they would rather save a few bucks then worry about resident safety. I left 2 months before I anticipate leaving because my experience was deplorable. TLDR; Don't stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Las Colinas - Meadow Creek Dr., responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>I would highly recommend that anyone considering to stay here reconsider that after this review. I'm not one to complain about experiences, especially not publicly, but I feel the need to get the word out about this place. I arrived in TX from PA early May. I had a reservation at another location in Richardson. When I arrived there, they said they didn't have any rooms available (I HAD A RESERVATION?). It's obvious that they intentionally over-book. After calling every Extended Stay in the area, I wound up at this location (1 hour from my workplace) solely because it was the only one that had a room available (keep in mind I was 26 hours away from home). Upon arrival, the room was disgusting - broken cabinets, broken refrigerator compartments, hair in the shower, crumbs in kitchen drawers, stains on the floor, etc. The wi-fi was out FIVE times during my 2 month stay -- one was an area-wide outage (no problem, not their fault). The other ones were related to their network - you think they would comp you, but they didn't care and were completely hostile whenever someone asked when it would be back. My dog would go under the bed and come out with diapers, bottles, etc. (How long were they under there??? Gross!). The pool was "under construction", not open for guests -- yet no one was ever doing any work to fix the pool? The...I would highly recommend that anyone considering to stay here reconsider that after this review. I'm not one to complain about experiences, especially not publicly, but I feel the need to get the word out about this place. I arrived in TX from PA early May. I had a reservation at another location in Richardson. When I arrived there, they said they didn't have any rooms available (I HAD A RESERVATION?). It's obvious that they intentionally over-book. After calling every Extended Stay in the area, I wound up at this location (1 hour from my workplace) solely because it was the only one that had a room available (keep in mind I was 26 hours away from home). Upon arrival, the room was disgusting - broken cabinets, broken refrigerator compartments, hair in the shower, crumbs in kitchen drawers, stains on the floor, etc. The wi-fi was out FIVE times during my 2 month stay -- one was an area-wide outage (no problem, not their fault). The other ones were related to their network - you think they would comp you, but they didn't care and were completely hostile whenever someone asked when it would be back. My dog would go under the bed and come out with diapers, bottles, etc. (How long were they under there??? Gross!). The pool was "under construction", not open for guests -- yet no one was ever doing any work to fix the pool? The receptionists had major attitude and were completely miserable and unprofessional -- especially the one with the facial piercing and acrylic nails. One day I went down and said, "Could I please have a shower towel?" She made a face, rolled her eyes, and snootily replied, "You mean a drying towel." She proceeded to argue with me about the difference between a shower towel and a drying towel. By the way, google "shower towel", and you'll see an image of a large towel that you use to dry yourself after a shower, but that's besides the point. Customer service is non-existent. Also, a guest told me that someone entered the building at knocked on his door, holding him at gunpoint. The way the staff handled this was by putting signs on the door to close the door - meanwhile, the door in the back literally will not completely shut. But hey, they would rather save a few bucks then worry about resident safety. I left 2 months before I anticipate leaving because my experience was deplorable. TLDR; Don't stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109045-r554786980-Extended_Stay_America_Dallas_Las_Colinas_Meadow_Creek_Dr-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>554786980</t>
+  </si>
+  <si>
+    <t>01/19/2018</t>
+  </si>
+  <si>
+    <t>Great service at great price.. Great staff</t>
+  </si>
+  <si>
+    <t>Great service at great price.. Great staff. Especially Deborah.Rooms are great for the price.. Location is easily accessible,Basic amenities are provided and staff goes one step ahead to help you out. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Las Colinas - Meadow Creek Dr., responded to this reviewResponded January 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 19, 2018</t>
+  </si>
+  <si>
+    <t>Great service at great price.. Great staff. Especially Deborah.Rooms are great for the price.. Location is easily accessible,Basic amenities are provided and staff goes one step ahead to help you out. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109045-r577750767-Extended_Stay_America_Dallas_Las_Colinas_Meadow_Creek_Dr-Irving_Texas.html</t>
   </si>
   <si>
-    <t>56032</t>
-  </si>
-  <si>
-    <t>109045</t>
-  </si>
-  <si>
     <t>577750767</t>
   </si>
   <si>
@@ -180,51 +237,15 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
-    <t>00esa, Manager at Extended Stay America - Dallas - Las Colinas - Meadow Creek Dr., responded to this reviewResponded 3 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 3 weeks ago</t>
+    <t>00esa, Manager at Extended Stay America - Dallas - Las Colinas - Meadow Creek Dr., responded to this reviewResponded May 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 4, 2018</t>
   </si>
   <si>
     <t>Where to start. Room was dirty when I checked in. Trash and dirt on the floor. Months worth of buildup under the sleeper sofa. Sleeper sofa mattress was disgusting and had smashed food on it. Old vegetables were left in the fridge. Did not appear anything had been wiped down. Fridge is so loud you’re listening to it all day. Was told “grab and go” breakfast was daily. For the first 3 days that only meant coffee because they had not restocked anything apparently. Laundry room has 5 washers and 6 dryers. 2 washers work and 3 dryers. I’ve been here two weeks and no change. Hallways don’t seem to ever get vacuumed. Trash all over outside and has been there since I checked in. They only clean your room once a week. I emptied all my trash and pulled all my linens myself. Again nothing wiped down and they tracked more dirt in the room than when they arrived. I know because i vacuumed it myself that morning with my own vacuum before going to work. All they did was make the bed, pour cleaner in the toilet and restock towels. Really the only positive thing I can say is that the ladies at the front desk have been nice. Seems like every time I hobby there though another guest is there complaining. There are several other hotels in this area, I would suggest looking elsewhere. More</t>
   </si>
   <si>
-    <t>Anuj S</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109045-r554786980-Extended_Stay_America_Dallas_Las_Colinas_Meadow_Creek_Dr-Irving_Texas.html</t>
-  </si>
-  <si>
-    <t>554786980</t>
-  </si>
-  <si>
-    <t>01/19/2018</t>
-  </si>
-  <si>
-    <t>Great service at great price.. Great staff</t>
-  </si>
-  <si>
-    <t>Great service at great price.. Great staff. Especially Deborah.Rooms are great for the price.. Location is easily accessible,Basic amenities are provided and staff goes one step ahead to help you out. MoreShow less</t>
-  </si>
-  <si>
-    <t>January 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>00esa, Manager at Extended Stay America - Dallas - Las Colinas - Meadow Creek Dr., responded to this reviewResponded January 19, 2018</t>
-  </si>
-  <si>
-    <t>Responded January 19, 2018</t>
-  </si>
-  <si>
-    <t>Great service at great price.. Great staff. Especially Deborah.Rooms are great for the price.. Location is easily accessible,Basic amenities are provided and staff goes one step ahead to help you out. More</t>
-  </si>
-  <si>
-    <t>E2018MOerics</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109045-r569219534-Extended_Stay_America_Dallas_Las_Colinas_Meadow_Creek_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -252,9 +273,6 @@
     <t>I was charged twice for a hotel that said was not able to complete reservation, finally charge went through at a different location but yet I was still charged twice for the other room and have yet to be contacted about refunds and its been almost 2 weeks without even an acknowledgement. The last reservation I had the TV was not working in the hotel for over 3 days... Keep in mind that I have spent over 30k with this hotel chain since 2014 so I can deal with issues now and again but this is getting to be too much to eat.More</t>
   </si>
   <si>
-    <t>Lawn W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109045-r566258457-Extended_Stay_America_Dallas_Las_Colinas_Meadow_Creek_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -279,9 +297,6 @@
     <t>I was here four about 2.5 months and I never had a problem with anything. The people was nice and helpful. my room was cleaned once a week as scheduled. this a great chose of a extended stay hotel if work as you traveling for a long period time.More</t>
   </si>
   <si>
-    <t>darruss2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109045-r549607641-Extended_Stay_America_Dallas_Las_Colinas_Meadow_Creek_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -300,9 +315,6 @@
     <t>December 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>00esa, Manager at Extended Stay America - Dallas - Las Colinas - Meadow Creek Dr., responded to this reviewResponded December 28, 2017</t>
   </si>
   <si>
@@ -312,9 +324,6 @@
     <t>Great place I was happy service was great, staff was friendly and provided great customer service.clean rooms very spacious and nice laundry services with vending machines, great location with a quiet home feelingMore</t>
   </si>
   <si>
-    <t>seonghok751</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109045-r538491816-Extended_Stay_America_Dallas_Las_Colinas_Meadow_Creek_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -342,9 +351,6 @@
     <t>This hotel is expensive. I will mot recommend this. If you want to stay in dallas you search other place. I will not go again. And breakfast is so bad. This hotel CEO have to eat your breakfast. Then they know what is wrong. More</t>
   </si>
   <si>
-    <t>Ted M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109045-r524223081-Extended_Stay_America_Dallas_Las_Colinas_Meadow_Creek_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -372,9 +378,6 @@
     <t>Comming here since 2010 finnaly a good manager- Bo- staff Tiara best customer service ever -the best  Watched her  walk outside because a customer had to have his key rebooted she took the key re set it walk back out  gave to the customer(curbside service nice)More</t>
   </si>
   <si>
-    <t>vincentsQ1564EW</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109045-r504868466-Extended_Stay_America_Dallas_Las_Colinas_Meadow_Creek_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -399,9 +402,6 @@
     <t>Great location for training and travel. Close to food and minor needs. Staff is very friendly and helpful to help with anything you need. Small gym room for cardio but very convenient. Laundry room needs more and cheaper machines.More</t>
   </si>
   <si>
-    <t>Laura H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109045-r492285142-Extended_Stay_America_Dallas_Las_Colinas_Meadow_Creek_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -426,9 +426,6 @@
     <t>This is an extended stay hotel with a kitchen. However, there is nothing in the kitchen. Not a coffee pot, not a mug, not even a plastic or Styrofoam cup to drink out of!  There was half a bag of chips in the cabinet, toothpaste on the bathroom floor, mold on the shower curtain.  Not to mention we arrived at 2 am and could not get in our room because the door handle didn't work properly. When we finally got in, it was freezing in there. The a/c was set at 63! I had requested a queen room which in most hotels means 2 queen beds. This one had full size bed and sleeper sofa.  They do provide breakfast and coffee in the lobby. It consisted of small granola bars, small muffins or oatmeal, and some pretty nasty coffee.  I quess we should have known better as we stayed in an Extend Stay America in South Dakota and it was pretty bad too. At least that one had one coffee mug, and a fork. LOL. But at least this one didn't have curly black hair all over the bathmat and in the tub. ICK.More</t>
   </si>
   <si>
-    <t>bcakes82</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109045-r485924363-Extended_Stay_America_Dallas_Las_Colinas_Meadow_Creek_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -456,9 +453,6 @@
     <t>Chenay provided great service, but its hard to see anyone at the front desk regularly. There were gunshots heard during my stay. There were a couple of staff members that were nice but in a way that it didn't seem genuine moreso just going through the motions. But housekeeping was always around and working hard and being diligent. I appreciate the housekeeping ladies greatly. It appears that its time to clean the pool.More</t>
   </si>
   <si>
-    <t>chantaldye</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109045-r479231073-Extended_Stay_America_Dallas_Las_Colinas_Meadow_Creek_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -486,9 +480,6 @@
     <t>Great staff loved deborah, destiny, tiffany, angel, chaney they made me feel like I was staying with family. They were always helpful and very attentive to me and my families needs. would visit again.More</t>
   </si>
   <si>
-    <t>Lana B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109045-r475524229-Extended_Stay_America_Dallas_Las_Colinas_Meadow_Creek_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -516,9 +507,6 @@
     <t>I would highly recommend staying at this location.  It is close to everything I needed without having to get into major traffic. All of the staff is kind, accommodating, friendly &amp; professional (especially Deborah &amp; Chanay). These two ladies are the absolute BEST! Deborah makes a point to ask about my father who is sick on a repeated basis! That's an entirely new level of care &amp; concern for a patron and it's so nice to know someone cares! Chanay has the greatest personality &amp; does everything possible to help you.  This hotel is clean &amp; they just updated the fitness equipment with a new treadmill, elliptical &amp; stationery bike! We have been at this hotel for numerous months &amp; don't plan on leaving until the contract ends with our job.More</t>
   </si>
   <si>
-    <t>Mary H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109045-r475321967-Extended_Stay_America_Dallas_Las_Colinas_Meadow_Creek_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -537,9 +525,6 @@
     <t>Love this place the staff is great Debra the front desk lady is the best. This hotel makes sure the guest are happy and rooms kept clean at all time! Best hotel stay I've ever had! Free WiFi and cable is great they give out cook ware if you need it.More</t>
   </si>
   <si>
-    <t>murtuzamirza</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109045-r456749203-Extended_Stay_America_Dallas_Las_Colinas_Meadow_Creek_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -561,9 +546,6 @@
     <t>Booked the hotel for 92 days, stayed in Deluxe Queen. # 255  &amp; #3241. As you enter: the curtain on your left is torn and tattered, with white stains, may be paint2. Iron Board was missing3. Chair on the right had holes in it. 4. Bulb in the lamp was fused5. Room was so badly lit. 6. pillows has hard white stains on , don't know what was that, don't even wanna know.7. bed skirt was torn tattered and had white stains on it.8. Drip pans in stove was so dirty that it was stinking9. fridge was broken from inside at the bottom left and right.10. carpet under the table was dull of foot marks11. And then we open the cupboard in the bathroom it was full of hair as someone had a hair cut12. And then that someone left his used shirt with hair next to his hair.13. Dishes and utensils were so stained and old that even one would be ashamed to donate them to goodwill. This was our third change of room since we checked in, and this was better just had above 12 points. We gave up stayed for 1 night and checked out.More</t>
   </si>
   <si>
-    <t>Jennifer B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109045-r455981084-Extended_Stay_America_Dallas_Las_Colinas_Meadow_Creek_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -579,9 +561,6 @@
     <t>I booked my room through Hotwire and therefore I was told by the lady in check in that I had to pay a $100 deposit which I would get back at check out.  In no way was I made aware of this ahead of time  and I was grateful I had the cash on me.  The girl at the  check in did not seem very friendly and that may have been cause I interrupted her eating.  The bed felt like I was sleeping on cement.  Guess I've learned my lesson to not use "deal" sights because their is no deal to them.</t>
   </si>
   <si>
-    <t>Twiana E</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109045-r451804211-Extended_Stay_America_Dallas_Las_Colinas_Meadow_Creek_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -606,9 +585,6 @@
     <t>I have used this hotel a few times and it has always been clean and the staff are so helpful. Khadija called right away to ensure the room was to my liking and she offered me all the comforts of home. I will rebook the location again.More</t>
   </si>
   <si>
-    <t>SLG99</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109045-r449701612-Extended_Stay_America_Dallas_Las_Colinas_Meadow_Creek_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -636,9 +612,6 @@
     <t>Several work related projects have extended my stay at this property for several months.I have been comfortable the entire stay.  Clean, Quite, Centrally Located.  Kitchen is convenient with a full size refrigerator.  Staff is friendly and helpful.  I have stayed at several other Extended Stays in the area, but this is the best in the DFW Metroplex.More</t>
   </si>
   <si>
-    <t>ibmastermind</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109045-r444112127-Extended_Stay_America_Dallas_Las_Colinas_Meadow_Creek_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -663,9 +636,6 @@
     <t>My stay has been so smooth with the help of all the staff at Meadow Creek. They have in one way or another made my stay more pleasant. They have always made me feel comfortable and all my needs met. The maintenance I didn't get to know well because I never had a reason for them to be summoned so with that being said, I had a wonderful time.More</t>
   </si>
   <si>
-    <t>NashvillemeetsAustin</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109045-r416930482-Extended_Stay_America_Dallas_Las_Colinas_Meadow_Creek_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -684,9 +654,6 @@
     <t>January 2016</t>
   </si>
   <si>
-    <t>Jimthelip</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109045-r395176456-Extended_Stay_America_Dallas_Las_Colinas_Meadow_Creek_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -708,9 +675,6 @@
     <t>Stayed at this location for several weekends on business, always in different rooms.  By and large the rooms were consistently clean enough, although occasionally the closets lacked hangers. Sleep quality was good.  The effectiveness of the AC units varied but none of my rooms was uncomfortable. The TV system could use an upgrade. Picture was quality fair at best and the overall channel options a bit limited by modern standards (more sports channels, please). Not really comfortable with the appearance of a political bias from the company in their selection of "news" channels.  I'll leave it at that. My main concern, especially on weekends, is peace and quiet while inside the building and this location, along with its seemingly newer companion next door, passed that test well.More</t>
   </si>
   <si>
-    <t>stbeck75</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109045-r355446285-Extended_Stay_America_Dallas_Las_Colinas_Meadow_Creek_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -738,9 +702,6 @@
     <t>I checked in for a week long stay, though after the first night I checked out and the hotel was unresponsive to my needs. I ended up calling Priceline to get assistance even after that the hotel was like can we switch you rooms. I am sorry but if the room you gave me wasn't clean what is going to make me believe the next room will be cleaner.Hallways smell dimly lit and very poorly managed.More</t>
   </si>
   <si>
-    <t>Bill Q</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109045-r327734641-Extended_Stay_America_Dallas_Las_Colinas_Meadow_Creek_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -768,9 +729,6 @@
     <t>The entire hotel smells like a combination of maple syrup and cigarettes. There is carpet pulled up and lying in the hallway. 2 lights in my room don't work. Trashy people hanging out at doorways smoking. The room appears to be fairly clean, raising the rating from 1 star to 2 stars. More</t>
   </si>
   <si>
-    <t>Jonesnco</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109045-r318467646-Extended_Stay_America_Dallas_Las_Colinas_Meadow_Creek_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -798,9 +756,6 @@
     <t>I stayed at this location in October 2015 through reservations I made on a discount hotel site. At first glance the room seemed fairly decent however there were a few problems. First the sink drained very slowly.  The shower did not suffer the same issue. After washing my face in the sink it took approximately 3 minutes for the sink to be fully drained. Second, and this is a minor issue, the shower insert and countertop used in the bathroom was an off-white with large speckles of brown. This at first glance makes all the surfaces appear to be very dirty. More of a 'poor choice' issue than a professional service issue.  The air conditioner in my room was moderately noisy - enough that I turned it off in order to be able to sleep reasonably well. I found the TV to be somewhat under sized for the distance away from the bed which makes viewing difficult however from the couch viewing is fine. The room I stayed in came with a refrigerator and microwave neither of which I used.  The refrigerator is more than a mini fridge and has a freezer compartment. The pool at the location appeared to be open however it is very small and I didn't use it nor did I use the exercise room that was available although I did see one or two people using the equipment. Parking seems adequate and reasonably well lit....I stayed at this location in October 2015 through reservations I made on a discount hotel site. At first glance the room seemed fairly decent however there were a few problems. First the sink drained very slowly.  The shower did not suffer the same issue. After washing my face in the sink it took approximately 3 minutes for the sink to be fully drained. Second, and this is a minor issue, the shower insert and countertop used in the bathroom was an off-white with large speckles of brown. This at first glance makes all the surfaces appear to be very dirty. More of a 'poor choice' issue than a professional service issue.  The air conditioner in my room was moderately noisy - enough that I turned it off in order to be able to sleep reasonably well. I found the TV to be somewhat under sized for the distance away from the bed which makes viewing difficult however from the couch viewing is fine. The room I stayed in came with a refrigerator and microwave neither of which I used.  The refrigerator is more than a mini fridge and has a freezer compartment. The pool at the location appeared to be open however it is very small and I didn't use it nor did I use the exercise room that was available although I did see one or two people using the equipment. Parking seems adequate and reasonably well lit. There didn't seem to be a great deal of noise from outside the hotel (traffic, etc).However in regards to the service issues, as other reviewers have stated there is no real breakfast served at this location. Upon my departure I visited the front desk and asked about breakfast. The woman working the counter was rather flippant when I asked about it and upon visiting the dining room the only thing available were a few pieces of fruit and coffee. I understand the location may not have waffle makers, hot links etc but I would have expected at least standard cold cereal and milk to be available. I can't complain a great deal given I stayed at the location for around half the normal price but had I paid full retail I would have been very unhappy.More</t>
   </si>
   <si>
-    <t>Elayna A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109045-r318016428-Extended_Stay_America_Dallas_Las_Colinas_Meadow_Creek_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -828,9 +783,6 @@
     <t>We did not know what hotel we were staying in until we paid. A few reviews had me worried. But the deal we got was great. We were here for the Cowboys vs Patriots game, so only 2 nights.Desiree at check in was so friendly and quick! When we got to our room we were so surprised at how big it was! We have never stayed at this chain before so we didn't know what to expect. Everything was clean and well organized for us. Our first night my husband accidently turned heat on instead of cool air, so the fire alarm sounded. I'm assuming due to not being on in some time. We called down to the desk in a frantic not knowing if there was a fire. The front desk attendant ran up. He was great! Even called moments later to let us know he has checked the other 2 floors. Our last night we needed to print out boarding passes and the desk attendant allowed us to use their computer so we didn't have to go to an office store and pay. Very kind!Check out was fast and the woman who was there was very friendly. Breakfast was simple, but enough to fill you up. We had chocolate muffins and hot cocoa.Our stay was great! Will definitely be back :) More</t>
   </si>
   <si>
-    <t>wayneknight1980</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109045-r314822335-Extended_Stay_America_Dallas_Las_Colinas_Meadow_Creek_Dr-Irving_Texas.html</t>
   </si>
   <si>
@@ -850,9 +802,6 @@
   </si>
   <si>
     <t>First off if you visit this hotel make sure you go in the correct one. There are two extended stays right next to each other. So after waiting in line while a guy was filling out paperwork like he was buying a car, I was informed I was at the wrong hotel. At the correct hotel I found the bathroom at soap scum on the floor near the tub, there was a black thing on the floor..it looked like a black olive but I'm not sure. There was a used Q-tip on the floor near the sink. In the bed there was something causing the blanket to stick to the sheets. After removing the blanket it woke me up a couple times with my leg hair sticking to the sheet. It would be better if they did a better job of cleaning. As for breakfast I don't know what they had earlier, but at 8:20 all that was left was two granola bars and 5 packets of plain oatmeal. More</t>
-  </si>
-  <si>
-    <t>Bishop_atl</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109045-r314373613-Extended_Stay_America_Dallas_Las_Colinas_Meadow_Creek_Dr-Irving_Texas.html</t>
@@ -1378,112 +1327,110 @@
       <c r="A2" t="n">
         <v>35323</v>
       </c>
-      <c r="B2" t="n">
-        <v>136065</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>2</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
       <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
         <v>54</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>55</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>35323</v>
       </c>
-      <c r="B3" t="n">
-        <v>136066</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
         <v>58</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>59</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>60</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>61</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>62</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>63</v>
-      </c>
-      <c r="O3" t="s">
-        <v>64</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -1505,219 +1452,197 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
         <v>65</v>
-      </c>
-      <c r="X3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>35323</v>
       </c>
-      <c r="B4" t="n">
-        <v>136067</v>
-      </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
         <v>69</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>70</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
         <v>71</v>
       </c>
-      <c r="K4" t="s">
+      <c r="O4" t="s">
         <v>72</v>
       </c>
-      <c r="L4" t="s">
-        <v>73</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>74</v>
-      </c>
-      <c r="O4" t="s">
-        <v>53</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1</v>
-      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>1</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y4" t="s">
         <v>75</v>
-      </c>
-      <c r="X4" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>35323</v>
       </c>
-      <c r="B5" t="n">
-        <v>136068</v>
-      </c>
-      <c r="C5" t="s">
-        <v>78</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
         <v>79</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>80</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
         <v>81</v>
       </c>
-      <c r="K5" t="s">
-        <v>82</v>
-      </c>
-      <c r="L5" t="s">
-        <v>83</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>63</v>
-      </c>
       <c r="O5" t="s">
-        <v>53</v>
-      </c>
-      <c r="P5" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
-        <v>5</v>
-      </c>
-      <c r="S5" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
+        <v>82</v>
+      </c>
+      <c r="X5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y5" t="s">
         <v>84</v>
-      </c>
-      <c r="X5" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>35323</v>
       </c>
-      <c r="B6" t="n">
-        <v>136069</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
         <v>87</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="K6" t="s">
         <v>88</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="L6" t="s">
         <v>89</v>
       </c>
-      <c r="J6" t="s">
-        <v>90</v>
-      </c>
-      <c r="K6" t="s">
-        <v>91</v>
-      </c>
-      <c r="L6" t="s">
-        <v>92</v>
-      </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="O6" t="s">
-        <v>94</v>
-      </c>
-      <c r="P6" t="n">
-        <v>5</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P6" t="s"/>
       <c r="Q6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R6" t="n">
         <v>5</v>
       </c>
-      <c r="S6" t="n">
-        <v>5</v>
-      </c>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
         <v>5</v>
@@ -1726,545 +1651,523 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="X6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="Y6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>35323</v>
       </c>
-      <c r="B7" t="n">
-        <v>136070</v>
-      </c>
-      <c r="C7" t="s">
-        <v>98</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
         <v>46</v>
       </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
       <c r="I7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="L7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="M7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="O7" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="P7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="X7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="Y7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>35323</v>
       </c>
-      <c r="B8" t="n">
-        <v>2493</v>
-      </c>
-      <c r="C8" t="s">
-        <v>108</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
       <c r="I8" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="J8" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="K8" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="L8" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
-      </c>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2</v>
+      </c>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="X8" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="Y8" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>35323</v>
       </c>
-      <c r="B9" t="n">
-        <v>136071</v>
-      </c>
-      <c r="C9" t="s">
-        <v>118</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
       <c r="I9" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="J9" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="K9" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="L9" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O9" t="s">
-        <v>94</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>5</v>
-      </c>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
-      <c r="S9" t="n">
-        <v>5</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="X9" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="Y9" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>35323</v>
       </c>
-      <c r="B10" t="n">
-        <v>1237</v>
-      </c>
-      <c r="C10" t="s">
-        <v>127</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
       <c r="I10" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="J10" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="K10" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="L10" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
       <c r="R10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="X10" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="Y10" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>35323</v>
       </c>
-      <c r="B11" t="n">
-        <v>136072</v>
-      </c>
-      <c r="C11" t="s">
-        <v>136</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
       <c r="I11" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="J11" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="K11" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="L11" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="O11" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2</v>
+      </c>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="X11" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="Y11" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>35323</v>
       </c>
-      <c r="B12" t="n">
-        <v>136073</v>
-      </c>
-      <c r="C12" t="s">
-        <v>146</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
       <c r="I12" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="J12" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="K12" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="L12" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>5</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="X12" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="Y12" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>35323</v>
       </c>
-      <c r="B13" t="n">
-        <v>136074</v>
-      </c>
-      <c r="C13" t="s">
-        <v>156</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
         <v>46</v>
       </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
       <c r="I13" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="J13" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="K13" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="L13" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="X13" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="Y13" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>35323</v>
       </c>
-      <c r="B14" t="n">
-        <v>5411</v>
-      </c>
-      <c r="C14" t="s">
-        <v>166</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
         <v>46</v>
       </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
       <c r="I14" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="J14" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="K14" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="L14" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O14" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2276,137 +2179,127 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="X14" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="Y14" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>35323</v>
       </c>
-      <c r="B15" t="n">
-        <v>136075</v>
-      </c>
-      <c r="C15" t="s">
-        <v>173</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
         <v>46</v>
       </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
       <c r="I15" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="J15" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="K15" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="L15" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
-      <c r="R15" t="n">
-        <v>5</v>
-      </c>
+      <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>2</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>160</v>
+      </c>
+      <c r="X15" t="s">
+        <v>161</v>
+      </c>
       <c r="Y15" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>35323</v>
       </c>
-      <c r="B16" t="n">
-        <v>2424</v>
-      </c>
-      <c r="C16" t="s">
-        <v>181</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
         <v>46</v>
       </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
       <c r="I16" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="J16" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="K16" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="L16" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="O16" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="P16" t="s"/>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q16" t="s"/>
       <c r="R16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2414,527 +2307,497 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>35323</v>
       </c>
-      <c r="B17" t="n">
-        <v>136076</v>
-      </c>
-      <c r="C17" t="s">
-        <v>187</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
         <v>46</v>
       </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
       <c r="I17" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="J17" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="K17" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="L17" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
-      <c r="R17" t="s"/>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s">
-        <v>193</v>
-      </c>
-      <c r="X17" t="s">
-        <v>194</v>
-      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>35323</v>
       </c>
-      <c r="B18" t="n">
-        <v>136077</v>
-      </c>
-      <c r="C18" t="s">
-        <v>196</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
         <v>46</v>
       </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
       <c r="I18" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="J18" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="K18" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="L18" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
-      </c>
-      <c r="P18" t="n">
-        <v>5</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
       <c r="S18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="X18" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="Y18" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>35323</v>
       </c>
-      <c r="B19" t="n">
-        <v>136078</v>
-      </c>
-      <c r="C19" t="s">
-        <v>206</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
         <v>46</v>
       </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
       <c r="I19" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="J19" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="K19" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="L19" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="O19" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
       </c>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
-      <c r="S19" t="s"/>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="X19" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="Y19" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>35323</v>
       </c>
-      <c r="B20" t="n">
-        <v>136079</v>
-      </c>
-      <c r="C20" t="s">
-        <v>215</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
         <v>46</v>
       </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
       <c r="I20" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="J20" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="K20" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="L20" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="M20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="O20" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="P20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
-      <c r="S20" t="n">
-        <v>2</v>
-      </c>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
+      <c r="W20" t="s">
+        <v>203</v>
+      </c>
+      <c r="X20" t="s">
+        <v>204</v>
+      </c>
       <c r="Y20" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>35323</v>
       </c>
-      <c r="B21" t="n">
-        <v>136080</v>
-      </c>
-      <c r="C21" t="s">
-        <v>222</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
         <v>46</v>
       </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
       <c r="I21" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="J21" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="K21" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="L21" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="M21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
-      </c>
-      <c r="P21" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2</v>
+      </c>
       <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
-      <c r="S21" t="s"/>
+      <c r="S21" t="n">
+        <v>2</v>
+      </c>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>35323</v>
       </c>
-      <c r="B22" t="n">
-        <v>136081</v>
-      </c>
-      <c r="C22" t="s">
-        <v>230</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
         <v>46</v>
       </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
       <c r="I22" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="J22" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="K22" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="L22" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>1</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s">
-        <v>237</v>
-      </c>
-      <c r="X22" t="s">
-        <v>238</v>
-      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>35323</v>
       </c>
-      <c r="B23" t="n">
-        <v>136082</v>
-      </c>
-      <c r="C23" t="s">
-        <v>240</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
         <v>46</v>
       </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
       <c r="I23" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="J23" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="K23" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="L23" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="M23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
-      </c>
-      <c r="P23" t="s"/>
-      <c r="Q23" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
       <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="X23" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="Y23" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>35323</v>
       </c>
-      <c r="B24" t="n">
-        <v>136083</v>
-      </c>
-      <c r="C24" t="s">
-        <v>250</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
         <v>46</v>
       </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
       <c r="I24" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="J24" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="K24" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="L24" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -2946,60 +2809,56 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="X24" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="Y24" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>35323</v>
       </c>
-      <c r="B25" t="n">
-        <v>136084</v>
-      </c>
-      <c r="C25" t="s">
-        <v>260</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
         <v>46</v>
       </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
       <c r="I25" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="J25" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="K25" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="L25" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="O25" t="s">
-        <v>266</v>
+        <v>72</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3011,60 +2870,56 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c r="X25" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="Y25" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>35323</v>
       </c>
-      <c r="B26" t="n">
-        <v>1034</v>
-      </c>
-      <c r="C26" t="s">
-        <v>270</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
         <v>46</v>
       </c>
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
       <c r="I26" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="J26" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="K26" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="L26" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="M26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="O26" t="s">
-        <v>94</v>
+        <v>251</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3075,77 +2930,134 @@
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
+      <c r="W26" t="s">
+        <v>252</v>
+      </c>
+      <c r="X26" t="s">
+        <v>253</v>
+      </c>
       <c r="Y26" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>35323</v>
       </c>
-      <c r="B27" t="n">
-        <v>136085</v>
-      </c>
-      <c r="C27" t="s">
-        <v>278</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
         <v>46</v>
       </c>
-      <c r="H27" t="s">
-        <v>47</v>
-      </c>
       <c r="I27" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="J27" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="K27" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="L27" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="O27" t="s">
-        <v>284</v>
-      </c>
-      <c r="P27" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
       <c r="R27" t="s"/>
-      <c r="S27" t="n">
-        <v>5</v>
-      </c>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>3</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>285</v>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>35323</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>262</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>263</v>
+      </c>
+      <c r="J28" t="s">
+        <v>264</v>
+      </c>
+      <c r="K28" t="s">
+        <v>265</v>
+      </c>
+      <c r="L28" t="s">
+        <v>266</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>260</v>
+      </c>
+      <c r="O28" t="s">
+        <v>267</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>
